--- a/BackTest/2020-01-12 BackTest CON.xlsx
+++ b/BackTest/2020-01-12 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3520,10 +3520,14 @@
         <v>-4018069.900389267</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.36</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
@@ -3553,11 +3557,19 @@
         <v>-3977019.470389266</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.351</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3598,19 @@
         <v>-3936469.655389267</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.355</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,10 +3639,14 @@
         <v>-3826475.848789267</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.375</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
@@ -3655,8 +3679,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3715,19 @@
         <v>-3833484.458789267</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3.368</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3784,10 +3822,14 @@
         <v>-3755889.133789267</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3.356</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.356</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
@@ -3817,11 +3859,19 @@
         <v>-3698819.023789267</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3.356</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3903,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3.356</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3916,10 +3972,14 @@
         <v>-3728355.308789267</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
@@ -3952,8 +4012,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4048,19 @@
         <v>-3762092.754789267</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.352</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4089,19 @@
         <v>-3816659.789789267</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3.387</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4130,19 @@
         <v>-3876733.589789267</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.379</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4174,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4213,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4252,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4288,19 @@
         <v>-3853404.930789267</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3.369</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4329,19 @@
         <v>-3917483.650789267</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.383</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4370,19 @@
         <v>-3801841.585789267</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3.362</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,15 +4411,19 @@
         <v>-3853404.930789267</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>3.369</v>
       </c>
       <c r="J118" t="n">
-        <v>3.369</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+        <v>3.372</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,15 +4452,17 @@
         <v>-3779814.525789267</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3.357</v>
+      </c>
       <c r="J119" t="n">
-        <v>3.369</v>
+        <v>3.372</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4355,17 +4493,17 @@
         <v>-3677476.834889268</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>3.381</v>
       </c>
       <c r="J120" t="n">
-        <v>3.369</v>
+        <v>3.372</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4396,11 +4534,19 @@
         <v>-3612396.884889267</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3.389</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4429,11 +4575,19 @@
         <v>-3685486.674889267</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3.392</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4462,11 +4616,19 @@
         <v>-3744559.244889267</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3.382</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4495,15 +4657,19 @@
         <v>-3698502.664889267</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>3.375</v>
       </c>
       <c r="J124" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+        <v>3.372</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4532,17 +4698,17 @@
         <v>-3756574.004889267</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>3.376</v>
       </c>
       <c r="J125" t="n">
-        <v>3.375</v>
+        <v>3.372</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -4573,17 +4739,17 @@
         <v>-3724534.644889267</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>3.359</v>
       </c>
       <c r="J126" t="n">
-        <v>3.375</v>
+        <v>3.372</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -4614,11 +4780,19 @@
         <v>-3638428.864889267</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4647,11 +4821,19 @@
         <v>-3570845.839889267</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3.391</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4683,8 +4865,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4716,8 +4904,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4746,11 +4940,19 @@
         <v>-3595375.974889268</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3.368</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4779,11 +4981,19 @@
         <v>-3564838.459889268</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4812,11 +5022,19 @@
         <v>-3598379.664889268</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4845,11 +5063,19 @@
         <v>-3522459.601889268</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3.363</v>
+      </c>
+      <c r="J134" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4878,11 +5104,19 @@
         <v>-3559505.111889267</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>3.395</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4911,11 +5145,19 @@
         <v>-3602558.001889267</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>3.389</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4944,11 +5186,19 @@
         <v>-3601909.204889268</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3.364</v>
+      </c>
+      <c r="J137" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4977,11 +5227,19 @@
         <v>-3722056.804889268</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3.395</v>
+      </c>
+      <c r="J138" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5010,11 +5268,19 @@
         <v>-3800653.359889268</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3.392</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5043,11 +5309,19 @@
         <v>-3880751.759889268</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3.383</v>
+      </c>
+      <c r="J140" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5076,11 +5350,19 @@
         <v>-3841203.174889268</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5109,11 +5391,19 @@
         <v>-3772618.919889268</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3.382</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5142,11 +5432,19 @@
         <v>-3830189.644889268</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3.392</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5175,11 +5473,19 @@
         <v>-3875244.994889268</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5208,11 +5514,19 @@
         <v>-3781129.374889268</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5241,15 +5555,17 @@
         <v>-1662339.229589268</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>3.384</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L146" t="n">
@@ -5283,7 +5599,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5320,7 +5638,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5357,7 +5677,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5394,7 +5716,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5431,7 +5755,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5468,7 +5794,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5505,7 +5833,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5539,10 +5869,14 @@
         <v>-1635895.092089268</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3.357</v>
+      </c>
+      <c r="J154" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5576,12 +5910,14 @@
         <v>-1607718.369289268</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>3.362</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5618,7 +5954,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5652,10 +5990,14 @@
         <v>-1564164.864289268</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3.357</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5692,7 +6034,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5729,7 +6073,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5766,7 +6112,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5803,7 +6151,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5840,7 +6190,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5874,12 +6226,12 @@
         <v>-1311222.127289268</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>3.368</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5916,7 +6268,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5953,7 +6307,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5990,7 +6346,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6027,7 +6385,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6064,7 +6424,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6101,7 +6463,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6138,7 +6502,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6175,7 +6541,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6212,7 +6580,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6249,7 +6619,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6286,7 +6658,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6323,7 +6697,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6360,7 +6736,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6397,7 +6775,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6434,7 +6814,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6471,7 +6853,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6508,7 +6892,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6545,7 +6931,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6582,7 +6970,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6619,7 +7009,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6656,7 +7048,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6693,7 +7087,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6730,7 +7126,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6767,7 +7165,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6804,7 +7204,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6841,7 +7243,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6878,7 +7282,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6915,7 +7321,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6952,7 +7360,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6989,7 +7399,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7026,7 +7438,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7063,7 +7477,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7100,7 +7516,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7137,7 +7555,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7174,7 +7594,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7211,7 +7633,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7248,7 +7672,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7282,12 +7708,12 @@
         <v>-1555972.517389269</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>3.373</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7324,7 +7750,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7361,7 +7789,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7398,7 +7828,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7432,12 +7864,12 @@
         <v>-1649058.972689269</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7474,7 +7906,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7508,12 +7942,12 @@
         <v>-1638045.442689269</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>3.382</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7550,7 +7984,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7584,12 +8020,12 @@
         <v>-1647557.127689269</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>3.361</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7623,12 +8059,12 @@
         <v>-1695115.552689269</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>3.386</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7665,7 +8101,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7699,12 +8137,12 @@
         <v>-1700622.317689269</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7738,12 +8176,12 @@
         <v>-1739169.672689269</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>3.371</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7777,12 +8215,12 @@
         <v>-1662074.962689269</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>3.363</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7816,12 +8254,12 @@
         <v>-1663068.182689269</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>3.368</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7855,12 +8293,12 @@
         <v>-1537914.432689269</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7897,7 +8335,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7934,7 +8374,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7971,7 +8413,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8005,12 +8449,12 @@
         <v>-1526402.287689269</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8044,12 +8488,12 @@
         <v>-1480345.707689269</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>3.379</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8086,7 +8530,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8123,7 +8569,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8160,7 +8608,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8197,7 +8647,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8234,7 +8686,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8271,7 +8725,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8308,7 +8764,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8345,7 +8803,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8382,7 +8842,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8419,7 +8881,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8456,7 +8920,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8493,7 +8959,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8530,7 +8998,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8567,7 +9037,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8604,7 +9076,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8641,7 +9115,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8678,7 +9154,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8715,7 +9193,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8752,7 +9232,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8789,7 +9271,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8826,7 +9310,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8863,7 +9349,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8900,7 +9388,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8937,7 +9427,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8974,7 +9466,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9011,7 +9505,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9048,7 +9544,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9085,7 +9583,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9122,7 +9622,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9159,7 +9661,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9196,7 +9700,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9233,7 +9739,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9270,7 +9778,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9304,12 +9814,12 @@
         <v>-1489688.502089269</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>3.394</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9343,12 +9853,12 @@
         <v>-1425109.167089269</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>3.393</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9385,7 +9895,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9419,12 +9931,12 @@
         <v>-1425109.167089269</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>3.394</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9461,7 +9973,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9495,12 +10009,12 @@
         <v>-1425109.167089269</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>3.394</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9534,12 +10048,12 @@
         <v>-1425109.167089269</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>3.394</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9576,7 +10090,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9610,12 +10126,12 @@
         <v>-1525078.883889269</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>3.395</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9649,12 +10165,12 @@
         <v>-1525078.883889269</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>3.394</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9688,12 +10204,12 @@
         <v>-1470035.263889269</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>3.394</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9727,12 +10243,12 @@
         <v>-1424479.298889269</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>3.395</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9766,12 +10282,12 @@
         <v>-1480548.178889269</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9805,12 +10321,12 @@
         <v>-1531110.293889269</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>3.397</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9844,12 +10360,12 @@
         <v>-1431110.293889269</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>3.396</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9886,7 +10402,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9920,12 +10438,12 @@
         <v>-1595312.013889269</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>3.396</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9959,12 +10477,12 @@
         <v>-1531733.908889269</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>3.395</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9998,12 +10516,12 @@
         <v>-1531733.908889269</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>3.396</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10037,12 +10555,12 @@
         <v>-1444487.068489268</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>3.396</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10076,12 +10594,12 @@
         <v>-1496551.028489268</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>3.399</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10115,12 +10633,12 @@
         <v>-1425849.028689268</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>3.397</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10154,12 +10672,12 @@
         <v>-1467900.688689268</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>3.399</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10193,12 +10711,12 @@
         <v>-1556021.846489268</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>3.396</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10232,12 +10750,12 @@
         <v>-1486436.361489268</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>3.395</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10271,12 +10789,12 @@
         <v>-1440491.931389268</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>3.396</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10310,12 +10828,12 @@
         <v>-1504051.586389268</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10349,12 +10867,12 @@
         <v>-1471010.996389268</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="n">
-        <v>3.395</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10388,12 +10906,12 @@
         <v>-1521072.496389268</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>3.399</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10427,12 +10945,12 @@
         <v>-1191021.877689268</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10466,12 +10984,12 @@
         <v>-1361107.977689268</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10505,12 +11023,12 @@
         <v>-1281510.192689268</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>3.396</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10544,12 +11062,12 @@
         <v>-1343085.837689268</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>3.399</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10583,12 +11101,12 @@
         <v>-1422183.007689268</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10622,12 +11140,12 @@
         <v>-1383135.037689268</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>3.397</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10661,12 +11179,12 @@
         <v>-1312047.707689268</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10700,12 +11218,12 @@
         <v>-1368617.202689268</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>3.399</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10739,12 +11257,12 @@
         <v>-1327566.772689268</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>3.397</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10778,12 +11296,12 @@
         <v>-1255602.365689268</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10817,12 +11335,12 @@
         <v>-1298154.640689268</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10856,12 +11374,12 @@
         <v>-1262610.975689268</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10895,12 +11413,12 @@
         <v>-1299155.870689268</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>3.399</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10934,12 +11452,12 @@
         <v>-1255602.365689268</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>3.397</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10973,12 +11491,12 @@
         <v>-1326189.080689268</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>3.399</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11012,12 +11530,12 @@
         <v>-1326189.080689268</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11051,12 +11569,12 @@
         <v>-1326189.080689268</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11090,12 +11608,12 @@
         <v>-1326189.080689268</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11129,12 +11647,12 @@
         <v>-1326189.080689268</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11168,12 +11686,12 @@
         <v>-1326189.080689268</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11207,12 +11725,12 @@
         <v>-1326189.080689268</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11246,12 +11764,12 @@
         <v>-1326958.025689268</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11285,12 +11803,12 @@
         <v>-1325843.666989269</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I306" t="n">
-        <v>3.397</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11324,12 +11842,12 @@
         <v>-1271276.631989269</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11363,12 +11881,12 @@
         <v>-1381500.812789269</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>3.399</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11402,12 +11920,12 @@
         <v>-1467919.509089269</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11441,12 +11959,12 @@
         <v>-1430373.384089269</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="n">
-        <v>3.395</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11480,12 +11998,12 @@
         <v>-1615687.291389269</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>3.396</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11519,12 +12037,12 @@
         <v>-1663245.716389269</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11558,12 +12076,12 @@
         <v>-1921585.560189269</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>3.382</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11597,12 +12115,14 @@
         <v>-1921585.560189269</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>3.365</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11636,12 +12156,14 @@
         <v>-1883038.205189269</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>3.365</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11675,12 +12197,14 @@
         <v>-1805943.495189269</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>3.366</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11714,12 +12238,14 @@
         <v>-1857506.840189269</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>3.372</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11753,12 +12279,14 @@
         <v>-1783916.435189269</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>3.371</v>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11792,12 +12320,14 @@
         <v>-1656259.610189269</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>3.378</v>
       </c>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11831,12 +12361,12 @@
         <v>-1583169.820189269</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="n">
-        <v>3.379</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11870,12 +12400,12 @@
         <v>-1629226.400189269</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>3.389</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11909,12 +12439,12 @@
         <v>-1717613.749389269</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>3.386</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11948,12 +12478,12 @@
         <v>-1685574.389389269</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11987,12 +12517,14 @@
         <v>-1500020.882389269</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>3.374</v>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12026,12 +12558,14 @@
         <v>-1622671.557389269</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>3.377</v>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12065,12 +12599,12 @@
         <v>-1571608.827389269</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="n">
-        <v>3.373</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12104,12 +12638,12 @@
         <v>-1531038.987389269</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12143,12 +12677,12 @@
         <v>-1597620.782389269</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>3.378</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12182,12 +12716,12 @@
         <v>-1661699.502389268</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>3.377</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12221,12 +12755,12 @@
         <v>-1696241.937389269</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12260,12 +12794,12 @@
         <v>-1659196.427389269</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12299,12 +12833,12 @@
         <v>-1774337.877389268</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
-        <v>3.379</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12338,12 +12872,12 @@
         <v>-1726278.837389268</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>3.378</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12377,12 +12911,12 @@
         <v>-1804875.392389268</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>3.387</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12416,12 +12950,12 @@
         <v>-1903472.845089268</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="n">
-        <v>3.383</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12455,12 +12989,12 @@
         <v>-1863924.260089268</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12494,12 +13028,14 @@
         <v>-1795340.005089269</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>3.371</v>
       </c>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12533,12 +13069,12 @@
         <v>-1897966.080089269</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="n">
-        <v>3.378</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12572,12 +13108,14 @@
         <v>-1856415.035089269</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>3.371</v>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12611,12 +13149,12 @@
         <v>-1856415.035089269</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12650,12 +13188,14 @@
         <v>-1794338.775089269</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>3.375</v>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12689,12 +13229,12 @@
         <v>-1794338.775089269</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="n">
-        <v>3.378</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12728,12 +13268,12 @@
         <v>-1725870.663089269</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>3.378</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12767,12 +13307,12 @@
         <v>-1760913.713089269</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="n">
-        <v>3.379</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12806,12 +13346,14 @@
         <v>-1716659.593089269</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>3.378</v>
       </c>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12845,12 +13387,12 @@
         <v>-1777234.008089269</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="n">
-        <v>3.379</v>
-      </c>
-      <c r="J346" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12884,12 +13426,14 @@
         <v>-1694997.460089269</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>3.378</v>
       </c>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12923,12 +13467,14 @@
         <v>-1769589.095089269</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>3.379</v>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12962,12 +13508,14 @@
         <v>-1701295.003089269</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>3.378</v>
       </c>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13004,7 +13552,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13038,12 +13588,12 @@
         <v>-1778373.693089269</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>3.386</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13077,12 +13627,12 @@
         <v>-1746834.948089269</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>3.378</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13119,7 +13669,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13156,7 +13708,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13193,7 +13747,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13227,10 +13783,14 @@
         <v>-1803894.788089269</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>3.379</v>
+      </c>
+      <c r="J356" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13264,10 +13824,14 @@
         <v>-1739315.453089269</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>3.381</v>
+      </c>
+      <c r="J357" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13301,10 +13865,14 @@
         <v>-1739315.453089269</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="J358" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13338,12 +13906,12 @@
         <v>-1679742.268089269</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>3.385</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13377,12 +13945,12 @@
         <v>-1732807.458089269</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>3.388</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13416,12 +13984,12 @@
         <v>-1732607.458089269</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>3.381</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13458,7 +14026,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13492,10 +14062,14 @@
         <v>-1805196.633089269</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>3.388</v>
+      </c>
+      <c r="J363" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13529,12 +14103,14 @@
         <v>-1750588.873089269</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>3.388</v>
       </c>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13568,12 +14144,14 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>3.389</v>
       </c>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13607,12 +14185,14 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>3.388</v>
       </c>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13646,12 +14226,14 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>3.388</v>
       </c>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13685,12 +14267,14 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>3.388</v>
       </c>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13724,12 +14308,14 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>3.388</v>
       </c>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13763,12 +14349,14 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>3.388</v>
       </c>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13802,12 +14390,14 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>3.388</v>
       </c>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13841,12 +14431,14 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>3.388</v>
       </c>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13880,12 +14472,14 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>3.388</v>
       </c>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13919,12 +14513,14 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>3.388</v>
       </c>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13958,12 +14554,14 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>3.388</v>
       </c>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13997,12 +14595,14 @@
         <v>-1851316.616089269</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>3.388</v>
       </c>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14036,12 +14636,14 @@
         <v>-2274170.494589269</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>3.389</v>
       </c>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14075,12 +14677,14 @@
         <v>-2125239.901189269</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>3.388</v>
       </c>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14114,12 +14718,14 @@
         <v>-2125239.901189269</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>3.389</v>
       </c>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14153,12 +14759,14 @@
         <v>-2125239.901189269</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>3.389</v>
       </c>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14192,12 +14800,14 @@
         <v>-2125239.901189269</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>3.389</v>
       </c>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14231,12 +14841,14 @@
         <v>-2163286.641189269</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>3.389</v>
       </c>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14270,12 +14882,14 @@
         <v>-2163286.641189269</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>3.388</v>
       </c>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14309,12 +14923,14 @@
         <v>-2163286.641189269</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>3.388</v>
       </c>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14348,12 +14964,14 @@
         <v>-2163286.641189269</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>3.388</v>
       </c>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14387,12 +15005,14 @@
         <v>-2036775.915389269</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
         <v>3.388</v>
       </c>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14426,12 +15046,14 @@
         <v>-2036775.915389269</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>3.389</v>
       </c>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14465,12 +15087,14 @@
         <v>-2115873.085389269</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>3.389</v>
       </c>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14504,12 +15128,14 @@
         <v>-2115873.085389269</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>3.388</v>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14543,12 +15169,14 @@
         <v>-2115873.085389269</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>3.388</v>
       </c>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14582,12 +15210,14 @@
         <v>-2115873.085389269</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>3.388</v>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14621,12 +15251,14 @@
         <v>-2075323.270389269</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>3.388</v>
       </c>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14660,12 +15292,14 @@
         <v>-2074749.986389269</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>3.389</v>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14699,12 +15333,14 @@
         <v>-2146337.931389269</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>3.39</v>
       </c>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14738,12 +15374,14 @@
         <v>-2100694.073089269</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>3.389</v>
       </c>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14777,12 +15415,14 @@
         <v>-2058141.798089269</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>3.39</v>
       </c>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14816,12 +15456,14 @@
         <v>-1986053.238089269</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>3.391</v>
       </c>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14855,12 +15497,14 @@
         <v>-2029606.743089269</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>3.394</v>
       </c>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14894,12 +15538,14 @@
         <v>-1901949.918089269</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>3.392</v>
       </c>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14933,12 +15579,14 @@
         <v>-1901206.095789269</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>3.394</v>
       </c>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14972,12 +15620,14 @@
         <v>-1937250.375789269</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>3.395</v>
       </c>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15011,12 +15661,14 @@
         <v>-1861657.510789269</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>3.39</v>
       </c>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15050,12 +15702,14 @@
         <v>-1311702.838989269</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>3.394</v>
       </c>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15089,12 +15743,14 @@
         <v>-1389298.163989269</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>3.395</v>
       </c>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15128,12 +15784,14 @@
         <v>-1389298.163989269</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>3.392</v>
       </c>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15167,12 +15825,14 @@
         <v>-1334731.128989269</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>3.392</v>
       </c>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15206,12 +15866,14 @@
         <v>-1334731.128989269</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>3.393</v>
       </c>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15245,12 +15907,14 @@
         <v>-1334731.128989269</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>3.393</v>
       </c>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15284,12 +15948,14 @@
         <v>-1381788.938989269</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>3.393</v>
       </c>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15323,12 +15989,14 @@
         <v>-1432784.001989269</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>3.39</v>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15362,12 +16030,14 @@
         <v>-1385225.576989269</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>3.388</v>
       </c>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15401,12 +16071,14 @@
         <v>-1326653.621989269</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>3.391</v>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15440,12 +16112,14 @@
         <v>-1390732.341989269</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>3.393</v>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15479,12 +16153,14 @@
         <v>-1352184.986989269</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>3.388</v>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15518,12 +16194,14 @@
         <v>-1481137.679585026</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>3.392</v>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15557,12 +16235,14 @@
         <v>-1554728.084585026</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>3.391</v>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15596,12 +16276,14 @@
         <v>-1492151.209585026</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>3.39</v>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15635,12 +16317,14 @@
         <v>-1557231.159585026</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>3.393</v>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15674,12 +16358,14 @@
         <v>-1484141.369585026</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>3.386</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15713,12 +16399,14 @@
         <v>-2014372.273185026</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>3.391</v>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15752,12 +16440,14 @@
         <v>-1968315.693185026</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>3.372</v>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15791,12 +16481,14 @@
         <v>-1878204.993185026</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>3.381</v>
       </c>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15830,12 +16522,14 @@
         <v>-1877584.033185026</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>3.393</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15869,12 +16563,14 @@
         <v>-1908622.163185026</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>3.394</v>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15908,12 +16604,14 @@
         <v>-1785971.488185026</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>3.382</v>
       </c>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15947,12 +16645,14 @@
         <v>-1734908.758185026</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>3.386</v>
       </c>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15986,12 +16686,14 @@
         <v>-1774957.958185026</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>3.393</v>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16025,12 +16727,14 @@
         <v>-1841539.753185026</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>3.391</v>
       </c>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16064,12 +16768,14 @@
         <v>-1811002.238185026</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>3.377</v>
       </c>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16103,12 +16809,14 @@
         <v>-1844543.443185026</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>3.393</v>
       </c>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16142,12 +16850,14 @@
         <v>-1770531.650494985</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>3.389</v>
       </c>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16181,12 +16891,14 @@
         <v>-1770531.650494985</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>3.394</v>
       </c>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16220,12 +16932,14 @@
         <v>-1813584.540494984</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>3.394</v>
       </c>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16259,12 +16973,14 @@
         <v>-1885673.100494985</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>3.39</v>
       </c>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16298,12 +17014,14 @@
         <v>-1837614.060494985</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>3.384</v>
       </c>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16337,12 +17055,14 @@
         <v>-1836957.253494984</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>3.393</v>
       </c>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16376,12 +17096,14 @@
         <v>-1995652.208494985</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>3.394</v>
       </c>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16415,12 +17137,14 @@
         <v>-1956103.623494985</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>3.39</v>
       </c>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16454,12 +17178,14 @@
         <v>-2024687.878494984</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>3.393</v>
       </c>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16493,12 +17219,14 @@
         <v>-1846218.686594984</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>3.382</v>
       </c>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16532,12 +17260,14 @@
         <v>-1891274.036594985</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>3.392</v>
       </c>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16571,12 +17301,14 @@
         <v>-1849722.991594985</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>3.39</v>
       </c>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16610,12 +17342,12 @@
         <v>-1902287.566594985</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="n">
-        <v>3.393</v>
-      </c>
-      <c r="J443" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16649,12 +17381,12 @@
         <v>-1840211.306594985</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>3.387</v>
-      </c>
-      <c r="J444" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16688,12 +17420,12 @@
         <v>-1874253.126594985</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="n">
-        <v>3.392</v>
-      </c>
-      <c r="J445" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16727,12 +17459,12 @@
         <v>-1942336.766594985</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>3.389</v>
-      </c>
-      <c r="J446" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16766,12 +17498,12 @@
         <v>-1907293.716594985</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>3.387</v>
-      </c>
-      <c r="J447" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16805,12 +17537,12 @@
         <v>-1898547.968023682</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="J448" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16844,12 +17576,12 @@
         <v>-1771427.956723682</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
-      </c>
-      <c r="I449" t="n">
-        <v>3.394</v>
-      </c>
-      <c r="J449" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16883,12 +17615,12 @@
         <v>-1771427.956723682</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="n">
-        <v>3.395</v>
-      </c>
-      <c r="J450" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16922,12 +17654,12 @@
         <v>-1686725.123823682</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="n">
-        <v>3.395</v>
-      </c>
-      <c r="J451" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16961,12 +17693,12 @@
         <v>-1625293.655823682</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="n">
-        <v>3.397</v>
-      </c>
-      <c r="J452" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17000,12 +17732,12 @@
         <v>-1625293.655823682</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="n">
-        <v>3.399</v>
-      </c>
-      <c r="J453" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17039,12 +17771,12 @@
         <v>-1625293.655823682</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>3.399</v>
-      </c>
-      <c r="J454" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17078,12 +17810,12 @@
         <v>-1746442.485823682</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>3.399</v>
-      </c>
-      <c r="J455" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17117,12 +17849,12 @@
         <v>-1711582.245323682</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J456" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17156,12 +17888,12 @@
         <v>-1772657.275323682</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J457" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17195,12 +17927,12 @@
         <v>-1848750.755323682</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>3.399</v>
-      </c>
-      <c r="J458" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17234,12 +17966,12 @@
         <v>-1817212.010323682</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
-      </c>
-      <c r="I459" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="J459" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17273,12 +18005,12 @@
         <v>-1892304.260323682</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>3.399</v>
-      </c>
-      <c r="J460" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17312,12 +18044,12 @@
         <v>-1823498.249223682</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>3.397</v>
-      </c>
-      <c r="J461" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17351,12 +18083,12 @@
         <v>-1823298.249223682</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J462" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17390,12 +18122,12 @@
         <v>-1823298.249223682</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="n">
-        <v>3.401</v>
-      </c>
-      <c r="J463" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17429,12 +18161,12 @@
         <v>-1578858.705923682</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="n">
-        <v>3.401</v>
-      </c>
-      <c r="J464" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17468,12 +18200,12 @@
         <v>-1640187.888523682</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="n">
-        <v>3.408</v>
-      </c>
-      <c r="J465" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17507,12 +18239,12 @@
         <v>-981749.0710963934</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="n">
-        <v>3.407</v>
-      </c>
-      <c r="J466" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17549,7 +18281,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17586,7 +18320,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17623,7 +18359,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17660,7 +18398,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17697,7 +18437,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17734,7 +18476,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17771,7 +18515,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17808,7 +18554,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17845,7 +18593,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17882,7 +18632,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17919,7 +18671,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17956,7 +18710,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17993,7 +18749,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18030,7 +18788,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18064,10 +18824,12 @@
         <v>439877.2455273152</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18104,7 +18866,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18138,10 +18902,12 @@
         <v>348264.7005273151</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18175,10 +18941,12 @@
         <v>424858.7955273151</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18212,10 +18980,12 @@
         <v>494644.2805273151</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18252,7 +19022,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18286,10 +19058,12 @@
         <v>508561.3455273152</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18323,10 +19097,12 @@
         <v>458499.8455273152</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18360,10 +19136,12 @@
         <v>496546.5855273152</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18400,7 +19178,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18434,10 +19214,12 @@
         <v>395513.2627273151</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18474,7 +19256,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18508,10 +19292,12 @@
         <v>96075.33172731512</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18548,7 +19334,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18585,7 +19373,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18622,7 +19412,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18656,10 +19448,12 @@
         <v>150141.7517273151</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18696,7 +19490,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18733,7 +19529,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18770,7 +19568,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18807,7 +19607,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18844,7 +19646,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18881,7 +19685,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18918,7 +19724,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18955,7 +19763,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18992,7 +19802,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19029,7 +19841,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19066,7 +19880,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19103,7 +19919,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19140,7 +19958,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19177,7 +19997,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19214,7 +20036,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19251,7 +20075,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19288,7 +20114,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19325,7 +20153,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19362,7 +20192,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19399,7 +20231,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19436,7 +20270,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19473,7 +20309,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19510,7 +20348,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19547,7 +20387,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19584,7 +20426,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19621,7 +20465,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19658,7 +20504,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19695,7 +20543,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19732,7 +20582,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19769,7 +20621,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19806,7 +20660,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19843,7 +20699,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19880,7 +20738,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19917,7 +20777,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19954,7 +20816,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19991,7 +20855,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20028,7 +20894,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20065,7 +20933,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20102,7 +20972,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20139,7 +21011,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20176,7 +21050,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20213,7 +21089,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20250,7 +21128,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20287,7 +21167,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20324,7 +21206,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20361,7 +21245,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20398,7 +21284,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20435,7 +21323,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20472,7 +21362,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20509,7 +21401,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20546,7 +21440,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20583,7 +21479,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20620,7 +21518,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20657,7 +21557,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20694,7 +21596,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20731,7 +21635,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20768,7 +21674,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20805,7 +21713,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20842,7 +21752,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20879,7 +21791,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20916,7 +21830,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20953,7 +21869,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20990,7 +21908,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21027,7 +21947,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21064,7 +21986,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21101,7 +22025,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21138,7 +22064,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21175,7 +22103,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21212,7 +22142,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21249,7 +22181,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21286,7 +22220,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21323,7 +22259,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21360,7 +22298,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21397,7 +22337,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21434,7 +22376,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21471,7 +22415,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21508,7 +22454,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21545,7 +22493,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21582,7 +22532,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21619,7 +22571,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21656,7 +22610,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21693,7 +22649,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21730,7 +22688,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21767,7 +22727,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21804,7 +22766,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21841,7 +22805,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21878,7 +22844,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21915,7 +22883,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21952,7 +22922,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21989,7 +22961,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22026,7 +23000,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22063,7 +23039,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22100,7 +23078,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22137,7 +23117,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22174,7 +23156,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22211,7 +23195,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22248,7 +23234,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22285,7 +23273,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22322,7 +23312,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22359,7 +23351,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22396,7 +23390,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22433,7 +23429,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22470,7 +23468,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22507,7 +23507,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22541,17 +23543,19 @@
         <v>532020.2730174861</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>3.372</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L602" t="n">
-        <v>1</v>
+        <v>1.034442467378411</v>
       </c>
       <c r="M602" t="inlineStr"/>
     </row>
@@ -22582,11 +23586,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22619,11 +23619,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22656,11 +23652,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22689,16 +23681,14 @@
         <v>507379.8611174861</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
       <c r="M606" t="inlineStr"/>
     </row>
     <row r="607">
@@ -22724,7 +23714,7 @@
         <v>458319.5911174861</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23153,7 +24143,7 @@
         <v>352123.7947174861</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23186,7 +24176,7 @@
         <v>294052.4547174862</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23219,7 +24209,7 @@
         <v>262013.0947174862</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23252,7 +24242,7 @@
         <v>348118.8747174862</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23285,7 +24275,7 @@
         <v>279871.0327174862</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23318,7 +24308,7 @@
         <v>228808.3027174862</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23351,7 +24341,7 @@
         <v>268857.5027174862</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23384,7 +24374,7 @@
         <v>202275.7077174862</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23417,7 +24407,7 @@
         <v>171738.1927174862</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23450,7 +24440,7 @@
         <v>138196.9877174862</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23483,7 +24473,7 @@
         <v>172739.4227174862</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23516,7 +24506,7 @@
         <v>135693.9127174861</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23549,7 +24539,7 @@
         <v>20552.46271748615</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23582,7 +24572,7 @@
         <v>68611.50271748615</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23615,7 +24605,7 @@
         <v>147208.0577174861</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23648,7 +24638,7 @@
         <v>67109.65771748614</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23681,7 +24671,7 @@
         <v>27561.07271748615</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23714,7 +24704,7 @@
         <v>96145.32771748616</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23813,7 +24803,7 @@
         <v>150211.7477174862</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23846,7 +24836,7 @@
         <v>203361.0407174862</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23879,7 +24869,7 @@
         <v>141284.7807174862</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23912,7 +24902,7 @@
         <v>177672.0806174862</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23978,7 +24968,7 @@
         <v>74545.39061748615</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -24044,7 +25034,7 @@
         <v>179173.9256174862</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -24176,7 +25166,7 @@
         <v>16534.12461748614</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24539,7 +25529,7 @@
         <v>59627.06361748614</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24572,7 +25562,7 @@
         <v>115695.9436174861</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24737,7 +25727,7 @@
         <v>152070.3218174861</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24770,7 +25760,7 @@
         <v>88992.83181748615</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24803,7 +25793,7 @@
         <v>154573.3968174862</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24836,7 +25826,7 @@
         <v>102509.4368174862</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24869,7 +25859,7 @@
         <v>152070.3218174862</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24902,7 +25892,7 @@
         <v>110018.6618174862</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25067,7 +26057,7 @@
         <v>224659.4968174862</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25100,7 +26090,7 @@
         <v>262706.2368174862</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25133,7 +26123,7 @@
         <v>192620.1368174862</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25166,7 +26156,7 @@
         <v>192620.1368174862</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25199,7 +26189,7 @@
         <v>192620.1368174862</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25232,7 +26222,7 @@
         <v>272502.2708174862</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25265,7 +26255,7 @@
         <v>233454.3008174862</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25331,7 +26321,7 @@
         <v>218936.4658174862</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25364,7 +26354,7 @@
         <v>177886.0358174862</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25595,7 +26585,7 @@
         <v>-3637.209182513834</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25628,7 +26618,7 @@
         <v>32407.07081748616</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25661,7 +26651,7 @@
         <v>-77871.26708251383</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25694,7 +26684,7 @@
         <v>-8213.692082513837</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25760,7 +26750,7 @@
         <v>137341.4230174862</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25859,7 +26849,7 @@
         <v>-118790.1465825138</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25892,7 +26882,7 @@
         <v>-81244.02158251384</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25925,7 +26915,7 @@
         <v>-128802.4465825138</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25958,7 +26948,7 @@
         <v>-70230.49158251385</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25991,7 +26981,7 @@
         <v>-5559.043582513848</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26024,7 +27014,7 @@
         <v>-44106.39858251385</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26057,7 +27047,7 @@
         <v>-121201.1085825139</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26090,7 +27080,7 @@
         <v>-172764.4535825138</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26123,7 +27113,7 @@
         <v>-99174.04858251385</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26156,7 +27146,7 @@
         <v>-161750.9235825138</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26189,7 +27179,7 @@
         <v>-161750.9235825138</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26222,7 +27212,7 @@
         <v>-264845.7135825139</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26255,7 +27245,7 @@
         <v>-205485.3737983412</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26288,7 +27278,7 @@
         <v>-205485.3737983412</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26321,7 +27311,7 @@
         <v>-147414.0337983412</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26354,7 +27344,7 @@
         <v>-147414.0337983412</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26486,7 +27476,7 @@
         <v>-106864.2187983412</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26519,7 +27509,7 @@
         <v>-40282.4237983412</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26552,7 +27542,7 @@
         <v>-71701.0207983412</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26684,7 +27674,7 @@
         <v>-35656.74079834119</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26750,7 +27740,7 @@
         <v>-59686.26079834119</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26783,7 +27773,7 @@
         <v>-138282.8157983412</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26816,7 +27806,7 @@
         <v>-58184.41579834119</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26849,7 +27839,7 @@
         <v>-97733.00079834118</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26882,7 +27872,7 @@
         <v>-29148.74579834117</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26915,7 +27905,7 @@
         <v>-29148.74579834117</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26948,7 +27938,7 @@
         <v>-74204.09579834118</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26981,7 +27971,7 @@
         <v>-74204.09579834118</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27014,7 +28004,7 @@
         <v>-21639.52079834118</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27047,7 +28037,7 @@
         <v>-21639.52079834118</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27080,7 +28070,7 @@
         <v>-123764.9807983412</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27179,7 +28169,7 @@
         <v>-214376.2957983412</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27212,7 +28202,7 @@
         <v>-139784.6607983412</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27245,7 +28235,7 @@
         <v>-93227.4657983412</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27278,7 +28268,7 @@
         <v>-93227.4657983412</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27311,7 +28301,7 @@
         <v>-169320.9457983412</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27344,7 +28334,7 @@
         <v>-200859.6907983412</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27377,7 +28367,7 @@
         <v>-200859.6907983412</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27410,7 +28400,7 @@
         <v>-133777.2807983412</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27542,7 +28532,7 @@
         <v>-182837.5507983412</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27575,7 +28565,7 @@
         <v>-248918.7307983412</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27608,7 +28598,7 @@
         <v>-249487.4297983412</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27641,7 +28631,7 @@
         <v>-195421.0097983411</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27674,7 +28664,7 @@
         <v>-240976.9747983411</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27707,7 +28697,7 @@
         <v>-184908.0947983411</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27740,7 +28730,7 @@
         <v>-235470.2097983411</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27773,7 +28763,7 @@
         <v>-157374.2697983411</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27806,7 +28796,7 @@
         <v>-210940.0747983411</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27839,7 +28829,7 @@
         <v>-178400.0997983411</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27872,7 +28862,7 @@
         <v>-51744.50479834111</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27905,7 +28895,7 @@
         <v>-117325.0697983411</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27938,7 +28928,7 @@
         <v>-170464.6508983411</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27971,7 +28961,7 @@
         <v>-220025.5358983411</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -28004,7 +28994,7 @@
         <v>-220025.5358983411</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -28037,7 +29027,7 @@
         <v>-220025.5358983411</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -28070,7 +29060,7 @@
         <v>-289611.0208983411</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28103,7 +29093,7 @@
         <v>-371211.2658983411</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28136,7 +29126,7 @@
         <v>-371211.2658983411</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28169,7 +29159,7 @@
         <v>-333164.5258983411</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28202,7 +29192,7 @@
         <v>-263078.4258983411</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28235,7 +29225,7 @@
         <v>-404251.8558983411</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28268,7 +29258,7 @@
         <v>-290572.5531983411</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28301,7 +29291,7 @@
         <v>-290572.5531983411</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28334,7 +29324,7 @@
         <v>-229414.9519983411</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28367,7 +29357,7 @@
         <v>-87045.8967825138</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28400,7 +29390,7 @@
         <v>-45995.46678251379</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28433,7 +29423,7 @@
         <v>-45708.52268251379</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28466,7 +29456,7 @@
         <v>-45708.52268251379</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28499,7 +29489,7 @@
         <v>1502.533417486207</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28532,7 +29522,7 @@
         <v>368272.4953174862</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28565,7 +29555,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28598,7 +29588,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28631,7 +29621,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H786" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28664,7 +29654,7 @@
         <v>730884.2525174862</v>
       </c>
       <c r="H787" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28697,7 +29687,7 @@
         <v>735442.6572174862</v>
       </c>
       <c r="H788" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28730,7 +29720,7 @@
         <v>735442.6572174862</v>
       </c>
       <c r="H789" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28763,7 +29753,7 @@
         <v>678372.5472174862</v>
       </c>
       <c r="H790" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28796,7 +29786,7 @@
         <v>642328.2672174862</v>
       </c>
       <c r="H791" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28829,7 +29819,7 @@
         <v>717921.1322174862</v>
       </c>
       <c r="H792" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28862,7 +29852,7 @@
         <v>788006.0022174862</v>
       </c>
       <c r="H793" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28895,7 +29885,7 @@
         <v>788006.0022174862</v>
       </c>
       <c r="H794" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28928,7 +29918,7 @@
         <v>796441.0877174862</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28961,7 +29951,7 @@
         <v>796441.0877174862</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28994,7 +29984,7 @@
         <v>784645.8172174862</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29027,7 +30017,7 @@
         <v>783852.8432174862</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29060,7 +30050,7 @@
         <v>783852.8432174862</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -29093,7 +30083,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29126,7 +30116,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29159,7 +30149,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H802" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29192,7 +30182,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29225,7 +30215,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29258,7 +30248,7 @@
         <v>622062.8275174862</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29291,7 +30281,7 @@
         <v>730073.6322174862</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29324,7 +30314,7 @@
         <v>249580.3195174861</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29357,7 +30347,7 @@
         <v>296638.1295174861</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29390,7 +30380,7 @@
         <v>259092.0045174861</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29423,7 +30413,7 @@
         <v>306650.4295174861</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29456,7 +30446,7 @@
         <v>248078.4745174861</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29489,7 +30479,7 @@
         <v>312157.1945174861</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29522,7 +30512,7 @@
         <v>350704.5495174861</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29555,7 +30545,7 @@
         <v>350904.5495174861</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29588,7 +30578,7 @@
         <v>273809.8395174861</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29621,7 +30611,7 @@
         <v>325373.1845174861</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29918,7 +30908,7 @@
         <v>-387554.6790825139</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29951,7 +30941,7 @@
         <v>-418592.8090825139</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29984,7 +30974,7 @@
         <v>-363525.1590825139</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -30017,7 +31007,7 @@
         <v>-370862.3324825139</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -30050,7 +31040,7 @@
         <v>-303279.3074825138</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -30083,7 +31073,7 @@
         <v>-354342.0374825138</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -30116,7 +31106,7 @@
         <v>-314292.8374825138</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -30149,7 +31139,7 @@
         <v>-247711.0424825138</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -30182,7 +31172,7 @@
         <v>-278248.5574825138</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -30215,7 +31205,7 @@
         <v>-312790.9924825138</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -30248,7 +31238,7 @@
         <v>-275745.4824825138</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -30281,7 +31271,7 @@
         <v>-276073.8854825138</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -30314,7 +31304,7 @@
         <v>-233020.9954825138</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -30347,7 +31337,7 @@
         <v>-305109.5554825138</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30380,7 +31370,7 @@
         <v>-257050.5154825138</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30413,7 +31403,7 @@
         <v>-335647.0704825138</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30446,7 +31436,7 @@
         <v>-255548.6704825138</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30479,7 +31469,7 @@
         <v>-295097.2554825137</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30512,7 +31502,7 @@
         <v>-226513.0004825137</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30545,7 +31535,7 @@
         <v>-168942.2754825137</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30578,7 +31568,7 @@
         <v>-213997.6254825137</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30611,7 +31601,7 @@
         <v>-213997.6254825137</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30644,7 +31634,7 @@
         <v>-161433.0504825137</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30677,7 +31667,7 @@
         <v>-223509.3104825137</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30809,7 +31799,7 @@
         <v>-241030.8354825137</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30842,7 +31832,7 @@
         <v>-315121.8554825137</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30875,7 +31865,7 @@
         <v>-193356.2674825137</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -31040,7 +32030,7 @@
         <v>-842671.4742825136</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -31073,7 +32063,7 @@
         <v>-1142671.474282514</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -31106,7 +32096,7 @@
         <v>-819362.1540825136</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -31139,7 +32129,7 @@
         <v>-874930.4190825137</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -31172,7 +32162,7 @@
         <v>-934503.6040825136</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -31205,7 +32195,7 @@
         <v>-881438.4140825137</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -33614,7 +34604,7 @@
         <v>-239165.0249825139</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33647,7 +34637,7 @@
         <v>-170580.7699825139</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33680,7 +34670,7 @@
         <v>-273206.8449825139</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33713,7 +34703,7 @@
         <v>-287917.3350825139</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33746,7 +34736,7 @@
         <v>-246366.2900825139</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33779,7 +34769,7 @@
         <v>-193449.2820825139</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33812,7 +34802,7 @@
         <v>-255525.5420825139</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33845,7 +34835,7 @@
         <v>-289567.3620825139</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33878,7 +34868,7 @@
         <v>-221483.7220825139</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33911,7 +34901,7 @@
         <v>-256526.7720825138</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33944,7 +34934,7 @@
         <v>-300580.8920825138</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33977,7 +34967,7 @@
         <v>1257444.592327315</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -34010,7 +35000,7 @@
         <v>1122779.157327315</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -34208,7 +35198,7 @@
         <v>1092241.642327315</v>
       </c>
       <c r="H955" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -34219,6 +35209,6 @@
       <c r="M955" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest CON.xlsx
+++ b/BackTest/2020-01-12 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>-4318413.977496643</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-4375984.702496642</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-4330929.352496643</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-4289378.307496643</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-4236813.732496643</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-4298889.992496642</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-4332931.812496643</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-4264848.172496643</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-4255837.102496643</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-4270162.701496643</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-4344754.336496643</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-4391311.531496643</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-4330236.501496643</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-4254143.021496642</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-4285681.766496642</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-4143507.106496642</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-4208086.441496642</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3190,10 +3190,14 @@
         <v>-3862883.255389267</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.354</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.354</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
@@ -3226,8 +3230,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3.354</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3266,19 @@
         <v>-3879904.165389267</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.369</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.354</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,10 +3307,14 @@
         <v>-3841857.425389267</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.357</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.357</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
@@ -3322,11 +3344,19 @@
         <v>-3911943.525389267</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.357</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3388,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.357</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,10 +3424,14 @@
         <v>-3929965.665389267</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3.362</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.362</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3424,8 +3464,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3.362</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3503,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3.362</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3539,19 @@
         <v>-4017573.290389267</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.367</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.362</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3526,9 +3586,13 @@
         <v>3.36</v>
       </c>
       <c r="J95" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>3.362</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3563,11 +3627,11 @@
         <v>3.351</v>
       </c>
       <c r="J96" t="n">
-        <v>3.36</v>
+        <v>3.362</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3604,11 +3668,11 @@
         <v>3.355</v>
       </c>
       <c r="J97" t="n">
-        <v>3.36</v>
+        <v>3.362</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3645,9 +3709,13 @@
         <v>3.375</v>
       </c>
       <c r="J98" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+        <v>3.362</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3680,11 +3748,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>3.375</v>
+        <v>3.362</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3715,17 +3783,15 @@
         <v>-3833484.458789267</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3.368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>3.375</v>
+        <v>3.362</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3759,8 +3825,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3.362</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3789,11 +3861,19 @@
         <v>-3826475.848789267</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3.353</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.362</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3822,15 +3902,17 @@
         <v>-3755889.133789267</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3.356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>3.356</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+        <v>3.362</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3859,17 +3941,15 @@
         <v>-3698819.023789267</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3.385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>3.356</v>
+        <v>3.362</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -3904,11 +3984,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>3.356</v>
+        <v>3.362</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -3942,8 +4022,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3.362</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3972,15 +4058,17 @@
         <v>-3728355.308789267</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3.372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+        <v>3.362</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4013,11 +4101,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -4048,13 +4136,11 @@
         <v>-3762092.754789267</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3.352</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4089,13 +4175,11 @@
         <v>-3816659.789789267</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3.387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4130,13 +4214,11 @@
         <v>-3876733.589789267</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3.379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4175,7 +4257,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4214,7 +4296,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4253,7 +4335,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4288,13 +4370,11 @@
         <v>-3853404.930789267</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3.369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4329,13 +4409,11 @@
         <v>-3917483.650789267</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3.383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4370,13 +4448,11 @@
         <v>-3801841.585789267</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3.362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4411,13 +4487,11 @@
         <v>-3853404.930789267</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>3.369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4452,13 +4526,11 @@
         <v>-3779814.525789267</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>3.357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4493,13 +4565,11 @@
         <v>-3677476.834889268</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>3.381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4534,13 +4604,11 @@
         <v>-3612396.884889267</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>3.389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4575,13 +4643,11 @@
         <v>-3685486.674889267</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>3.392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4616,13 +4682,11 @@
         <v>-3744559.244889267</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3.382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4657,13 +4721,11 @@
         <v>-3698502.664889267</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>3.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4698,13 +4760,11 @@
         <v>-3756574.004889267</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3.376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4739,13 +4799,11 @@
         <v>-3724534.644889267</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3.359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4780,13 +4838,11 @@
         <v>-3638428.864889267</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4821,13 +4877,11 @@
         <v>-3570845.839889267</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3.391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4866,7 +4920,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4905,7 +4959,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4940,13 +4994,11 @@
         <v>-3595375.974889268</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3.368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4981,13 +5033,11 @@
         <v>-3564838.459889268</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>3.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5022,13 +5072,11 @@
         <v>-3598379.664889268</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5063,13 +5111,11 @@
         <v>-3522459.601889268</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3.363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5104,13 +5150,11 @@
         <v>-3559505.111889267</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3.395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5145,13 +5189,11 @@
         <v>-3602558.001889267</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3.389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5186,13 +5228,11 @@
         <v>-3601909.204889268</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3.364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5227,13 +5267,11 @@
         <v>-3722056.804889268</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>3.395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5268,13 +5306,11 @@
         <v>-3800653.359889268</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3.392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5309,13 +5345,11 @@
         <v>-3880751.759889268</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3.383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5350,13 +5384,11 @@
         <v>-3841203.174889268</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5391,13 +5423,11 @@
         <v>-3772618.919889268</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3.382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5432,13 +5462,11 @@
         <v>-3830189.644889268</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>3.392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5473,13 +5501,11 @@
         <v>-3875244.994889268</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5514,13 +5540,11 @@
         <v>-3781129.374889268</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3.372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5555,13 +5579,11 @@
         <v>-1662339.229589268</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3.384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5600,7 +5622,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5639,7 +5661,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5678,7 +5700,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5717,7 +5739,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5756,7 +5778,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5795,7 +5817,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5834,7 +5856,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5869,13 +5891,11 @@
         <v>-1635895.092089268</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>3.357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5910,13 +5930,11 @@
         <v>-1607718.369289268</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3.362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5955,7 +5973,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5990,13 +6008,11 @@
         <v>-1564164.864289268</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>3.357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6035,7 +6051,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6074,7 +6090,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6113,7 +6129,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6152,7 +6168,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6191,7 +6207,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6230,7 +6246,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6269,7 +6285,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6308,7 +6324,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6347,7 +6363,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6386,7 +6402,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6425,7 +6441,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6464,7 +6480,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6503,7 +6519,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6542,7 +6558,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6581,7 +6597,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6620,7 +6636,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6659,7 +6675,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6698,7 +6714,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6737,7 +6753,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6776,7 +6792,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6815,7 +6831,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6854,7 +6870,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6893,7 +6909,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6932,7 +6948,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6971,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7010,7 +7026,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7049,7 +7065,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7088,7 +7104,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7127,7 +7143,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7166,7 +7182,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7205,7 +7221,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7244,7 +7260,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7283,7 +7299,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7322,7 +7338,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7361,7 +7377,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7400,7 +7416,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7439,7 +7455,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7478,7 +7494,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7517,7 +7533,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7556,7 +7572,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7595,7 +7611,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7634,7 +7650,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7673,7 +7689,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7712,7 +7728,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7751,7 +7767,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7790,7 +7806,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7829,7 +7845,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7868,7 +7884,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7907,7 +7923,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7946,7 +7962,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7985,7 +8001,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8024,7 +8040,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8063,7 +8079,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8102,7 +8118,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8141,7 +8157,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8180,7 +8196,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8219,7 +8235,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8258,7 +8274,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8297,7 +8313,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8336,7 +8352,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8375,7 +8391,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8414,7 +8430,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8453,7 +8469,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8492,7 +8508,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8531,7 +8547,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8570,7 +8586,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8609,7 +8625,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8648,7 +8664,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8687,7 +8703,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8726,7 +8742,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8765,7 +8781,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8804,7 +8820,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8843,7 +8859,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8882,7 +8898,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8921,7 +8937,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8960,7 +8976,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8999,7 +9015,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9038,7 +9054,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9077,7 +9093,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9116,7 +9132,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9155,7 +9171,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9194,7 +9210,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9233,7 +9249,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9272,7 +9288,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9311,7 +9327,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9350,7 +9366,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9389,7 +9405,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9428,7 +9444,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9467,7 +9483,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9506,7 +9522,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9545,7 +9561,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9584,7 +9600,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9623,7 +9639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9662,7 +9678,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9701,7 +9717,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9740,7 +9756,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9779,7 +9795,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9818,7 +9834,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9857,7 +9873,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9896,7 +9912,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9935,7 +9951,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9974,7 +9990,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10013,7 +10029,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10052,7 +10068,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10091,7 +10107,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10130,7 +10146,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10169,7 +10185,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10208,7 +10224,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10247,7 +10263,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10286,7 +10302,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10325,7 +10341,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10364,7 +10380,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10403,7 +10419,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10442,7 +10458,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10481,7 +10497,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10520,7 +10536,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10559,7 +10575,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10598,7 +10614,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10637,7 +10653,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10676,7 +10692,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10715,7 +10731,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10754,7 +10770,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10793,7 +10809,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10832,7 +10848,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10871,7 +10887,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10910,7 +10926,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10949,7 +10965,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10988,7 +11004,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11027,7 +11043,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11066,7 +11082,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11105,7 +11121,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11144,7 +11160,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11183,7 +11199,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11222,7 +11238,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11261,7 +11277,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11300,7 +11316,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11339,7 +11355,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11378,7 +11394,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11417,7 +11433,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11456,7 +11472,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11495,7 +11511,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11534,7 +11550,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11573,7 +11589,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11612,7 +11628,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11651,7 +11667,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11690,7 +11706,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11729,7 +11745,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11768,7 +11784,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11807,7 +11823,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11846,7 +11862,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11885,7 +11901,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11924,7 +11940,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11963,7 +11979,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12002,7 +12018,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12041,7 +12057,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12080,7 +12096,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12115,13 +12131,11 @@
         <v>-1921585.560189269</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>3.365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12156,13 +12170,11 @@
         <v>-1883038.205189269</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>3.365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12197,13 +12209,11 @@
         <v>-1805943.495189269</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>3.366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12238,13 +12248,11 @@
         <v>-1857506.840189269</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>3.372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12279,13 +12287,11 @@
         <v>-1783916.435189269</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>3.371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12320,13 +12326,11 @@
         <v>-1656259.610189269</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>3.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12365,7 +12369,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12404,7 +12408,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12443,7 +12447,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12482,7 +12486,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12517,13 +12521,11 @@
         <v>-1500020.882389269</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>3.374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12558,13 +12560,11 @@
         <v>-1622671.557389269</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>3.377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13028,13 +13028,11 @@
         <v>-1795340.005089269</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>3.371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13073,7 +13071,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13108,13 +13106,11 @@
         <v>-1856415.035089269</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>3.371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13153,7 +13149,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13188,13 +13184,11 @@
         <v>-1794338.775089269</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>3.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13233,7 +13227,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13272,7 +13266,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13311,7 +13305,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13346,13 +13340,11 @@
         <v>-1716659.593089269</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>3.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13391,7 +13383,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13426,13 +13418,11 @@
         <v>-1694997.460089269</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>3.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13467,13 +13457,11 @@
         <v>-1769589.095089269</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>3.379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -13508,13 +13496,11 @@
         <v>-1701295.003089269</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>3.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13553,7 +13539,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13592,7 +13578,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13631,7 +13617,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13670,7 +13656,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13709,7 +13695,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13748,7 +13734,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13783,13 +13769,11 @@
         <v>-1803894.788089269</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>3.379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13824,13 +13808,11 @@
         <v>-1739315.453089269</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>3.381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13865,13 +13847,11 @@
         <v>-1739315.453089269</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>3.385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13910,7 +13890,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13949,7 +13929,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13988,7 +13968,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -14027,7 +14007,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -14062,13 +14042,11 @@
         <v>-1805196.633089269</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14103,13 +14081,11 @@
         <v>-1750588.873089269</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14144,13 +14120,11 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>3.389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14185,13 +14159,11 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14226,13 +14198,11 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14267,13 +14237,11 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14308,13 +14276,11 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -14349,13 +14315,11 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -14390,13 +14354,11 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -14431,13 +14393,11 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -14472,13 +14432,11 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -14513,13 +14471,11 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -14554,13 +14510,11 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -14595,13 +14549,11 @@
         <v>-1851316.616089269</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14636,13 +14588,11 @@
         <v>-2274170.494589269</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>3.389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14677,13 +14627,11 @@
         <v>-2125239.901189269</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -14718,13 +14666,11 @@
         <v>-2125239.901189269</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>3.389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -14759,13 +14705,11 @@
         <v>-2125239.901189269</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>3.389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -14800,13 +14744,11 @@
         <v>-2125239.901189269</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>3.389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14841,13 +14783,11 @@
         <v>-2163286.641189269</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>3.389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14882,13 +14822,11 @@
         <v>-2163286.641189269</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14923,13 +14861,11 @@
         <v>-2163286.641189269</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14964,13 +14900,11 @@
         <v>-2163286.641189269</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -15005,13 +14939,11 @@
         <v>-2036775.915389269</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -15046,13 +14978,11 @@
         <v>-2036775.915389269</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>3.389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -15087,13 +15017,11 @@
         <v>-2115873.085389269</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>3.389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -15128,13 +15056,11 @@
         <v>-2115873.085389269</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -15169,13 +15095,11 @@
         <v>-2115873.085389269</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -15210,13 +15134,11 @@
         <v>-2115873.085389269</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -15251,13 +15173,11 @@
         <v>-2075323.270389269</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -15292,13 +15212,11 @@
         <v>-2074749.986389269</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>3.389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -15333,13 +15251,11 @@
         <v>-2146337.931389269</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -15374,13 +15290,11 @@
         <v>-2100694.073089269</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>3.389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -15415,13 +15329,11 @@
         <v>-2058141.798089269</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -15456,13 +15368,11 @@
         <v>-1986053.238089269</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>3.391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -15497,13 +15407,11 @@
         <v>-2029606.743089269</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>3.394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -15538,13 +15446,11 @@
         <v>-1901949.918089269</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>3.392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -15579,13 +15485,11 @@
         <v>-1901206.095789269</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>3.394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -15620,13 +15524,11 @@
         <v>-1937250.375789269</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>3.395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -15661,13 +15563,11 @@
         <v>-1861657.510789269</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -15702,13 +15602,11 @@
         <v>-1311702.838989269</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>3.394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -15743,13 +15641,11 @@
         <v>-1389298.163989269</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>3.395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -15784,13 +15680,11 @@
         <v>-1389298.163989269</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>3.392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -15825,13 +15719,11 @@
         <v>-1334731.128989269</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>3.392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -15866,13 +15758,11 @@
         <v>-1334731.128989269</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>3.393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -15907,13 +15797,11 @@
         <v>-1334731.128989269</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>3.393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15948,13 +15836,11 @@
         <v>-1381788.938989269</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>3.393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15989,13 +15875,11 @@
         <v>-1432784.001989269</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -16030,13 +15914,11 @@
         <v>-1385225.576989269</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -16071,13 +15953,11 @@
         <v>-1326653.621989269</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>3.391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -16112,13 +15992,11 @@
         <v>-1390732.341989269</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>3.393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -16153,13 +16031,11 @@
         <v>-1352184.986989269</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>3.388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -16194,13 +16070,11 @@
         <v>-1481137.679585026</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>3.392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -16235,13 +16109,11 @@
         <v>-1554728.084585026</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>3.391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -16276,13 +16148,11 @@
         <v>-1492151.209585026</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -16317,13 +16187,11 @@
         <v>-1557231.159585026</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>3.393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -16358,13 +16226,11 @@
         <v>-1484141.369585026</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>3.386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -16399,13 +16265,11 @@
         <v>-2014372.273185026</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>3.391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -16440,13 +16304,11 @@
         <v>-1968315.693185026</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>3.372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -16481,13 +16343,11 @@
         <v>-1878204.993185026</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>3.381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -16522,13 +16382,11 @@
         <v>-1877584.033185026</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>3.393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -16563,13 +16421,11 @@
         <v>-1908622.163185026</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>3.394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -16604,13 +16460,11 @@
         <v>-1785971.488185026</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>3.382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -16645,13 +16499,11 @@
         <v>-1734908.758185026</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>3.386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -16686,13 +16538,11 @@
         <v>-1774957.958185026</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>3.393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -16727,13 +16577,11 @@
         <v>-1841539.753185026</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>3.391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -16768,13 +16616,11 @@
         <v>-1811002.238185026</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>3.377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -16809,13 +16655,11 @@
         <v>-1844543.443185026</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>3.393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -16850,13 +16694,11 @@
         <v>-1770531.650494985</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>3.389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -16891,13 +16733,11 @@
         <v>-1770531.650494985</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>3.394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16932,13 +16772,11 @@
         <v>-1813584.540494984</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>3.394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16973,13 +16811,11 @@
         <v>-1885673.100494985</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -17014,13 +16850,11 @@
         <v>-1837614.060494985</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>3.384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -17055,13 +16889,11 @@
         <v>-1836957.253494984</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>3.393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -17096,13 +16928,11 @@
         <v>-1995652.208494985</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>3.394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -17137,13 +16967,11 @@
         <v>-1956103.623494985</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -17178,13 +17006,11 @@
         <v>-2024687.878494984</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>3.393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -17219,13 +17045,11 @@
         <v>-1846218.686594984</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>3.382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -17260,13 +17084,11 @@
         <v>-1891274.036594985</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>3.392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -17301,13 +17123,11 @@
         <v>-1849722.991594985</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -17346,7 +17166,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -17385,7 +17205,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -17424,7 +17244,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -17463,7 +17283,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -17502,7 +17322,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -17541,7 +17361,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -17580,7 +17400,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -17619,7 +17439,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -17658,7 +17478,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -17697,7 +17517,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -17736,7 +17556,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -17775,7 +17595,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -17814,7 +17634,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -17853,7 +17673,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -17892,7 +17712,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -17931,7 +17751,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17970,7 +17790,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -18009,7 +17829,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -18048,7 +17868,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -18087,7 +17907,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -18126,7 +17946,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -18165,7 +17985,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -18204,7 +18024,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -18243,7 +18063,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -18282,7 +18102,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -18321,7 +18141,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -18360,7 +18180,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -18395,19 +18215,19 @@
         <v>-936411.226323682</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>3.372</v>
+        <v>3.362</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L470" t="n">
-        <v>1</v>
+        <v>1.015226055919096</v>
       </c>
       <c r="M470" t="inlineStr"/>
     </row>
@@ -18437,14 +18257,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18476,14 +18290,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18515,14 +18323,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18554,14 +18356,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18593,14 +18389,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18632,14 +18422,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18671,14 +18455,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18710,14 +18488,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18749,14 +18521,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18788,14 +18554,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18827,14 +18587,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18866,14 +18620,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18905,14 +18653,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18944,14 +18686,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18983,14 +18719,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19022,14 +18752,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19061,14 +18785,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19100,14 +18818,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19139,14 +18851,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19178,14 +18884,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19217,14 +18917,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19256,14 +18950,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19295,14 +18983,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19334,14 +19016,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19373,14 +19049,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19412,14 +19082,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19451,14 +19115,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19490,14 +19148,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19529,14 +19181,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19565,17 +19211,11 @@
         <v>228738.3067273152</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19604,17 +19244,11 @@
         <v>192193.4117273152</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19643,17 +19277,11 @@
         <v>235746.9167273152</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19682,17 +19310,11 @@
         <v>165160.2017273152</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19721,17 +19343,11 @@
         <v>258274.5917273152</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19760,17 +19376,11 @@
         <v>333867.4567273151</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19802,14 +19412,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19841,14 +19445,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19880,14 +19478,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19919,14 +19511,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19958,14 +19544,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19997,14 +19577,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20036,14 +19610,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20075,14 +19643,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20114,14 +19676,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20153,14 +19709,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20192,14 +19742,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20231,14 +19775,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20270,14 +19808,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20309,14 +19841,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20348,14 +19874,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20387,14 +19907,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20426,14 +19940,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20465,14 +19973,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20504,14 +20006,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20543,14 +20039,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20582,14 +20072,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20621,14 +20105,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20660,14 +20138,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20699,14 +20171,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20738,14 +20204,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20777,14 +20237,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20816,14 +20270,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20855,14 +20303,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20894,14 +20336,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20933,14 +20369,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20972,14 +20402,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -21011,14 +20435,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -21050,14 +20468,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -21089,14 +20501,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -21128,14 +20534,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21167,14 +20567,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21206,14 +20600,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21245,14 +20633,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21284,14 +20666,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21323,14 +20699,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21362,14 +20732,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21401,14 +20765,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21440,14 +20798,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21479,14 +20831,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21518,14 +20864,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21557,14 +20897,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21596,14 +20930,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21635,14 +20963,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21674,14 +20996,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21713,14 +21029,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21752,14 +21062,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21791,14 +21095,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21830,14 +21128,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21869,14 +21161,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21908,14 +21194,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21947,14 +21227,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21986,14 +21260,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -22025,14 +21293,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22064,14 +21326,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22103,14 +21359,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22142,14 +21392,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -22181,14 +21425,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -22220,14 +21458,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -22259,14 +21491,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -22298,14 +21524,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -22337,14 +21557,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22376,14 +21590,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22415,14 +21623,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22454,14 +21656,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -22493,14 +21689,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22532,14 +21722,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -22571,14 +21755,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22610,14 +21788,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22649,14 +21821,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22688,14 +21854,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22727,14 +21887,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22766,14 +21920,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22805,14 +21953,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22844,14 +21986,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22883,14 +22019,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22922,14 +22052,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -22961,14 +22085,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23000,14 +22118,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23039,14 +22151,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23078,14 +22184,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23117,14 +22217,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23156,14 +22250,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23195,14 +22283,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23234,14 +22316,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -23273,14 +22349,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -23312,14 +22382,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -23351,14 +22415,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -23390,14 +22448,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -23429,14 +22481,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -23468,14 +22514,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -23507,14 +22547,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -23543,19 +22577,13 @@
         <v>532020.2730174861</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>3.372</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
-        <v>1.034442467378411</v>
+        <v>1</v>
       </c>
       <c r="M602" t="inlineStr"/>
     </row>
@@ -24143,7 +23171,7 @@
         <v>352123.7947174861</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -24176,7 +23204,7 @@
         <v>294052.4547174862</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -24209,7 +23237,7 @@
         <v>262013.0947174862</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -24242,7 +23270,7 @@
         <v>348118.8747174862</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -24275,7 +23303,7 @@
         <v>279871.0327174862</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24308,7 +23336,7 @@
         <v>228808.3027174862</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -24341,7 +23369,7 @@
         <v>268857.5027174862</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24374,7 +23402,7 @@
         <v>202275.7077174862</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24407,7 +23435,7 @@
         <v>171738.1927174862</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -24440,7 +23468,7 @@
         <v>138196.9877174862</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24473,7 +23501,7 @@
         <v>172739.4227174862</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24506,7 +23534,7 @@
         <v>135693.9127174861</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24539,7 +23567,7 @@
         <v>20552.46271748615</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24572,7 +23600,7 @@
         <v>68611.50271748615</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24605,7 +23633,7 @@
         <v>147208.0577174861</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24638,7 +23666,7 @@
         <v>67109.65771748614</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24671,7 +23699,7 @@
         <v>27561.07271748615</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24704,7 +23732,7 @@
         <v>96145.32771748616</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24803,7 +23831,7 @@
         <v>150211.7477174862</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24836,7 +23864,7 @@
         <v>203361.0407174862</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24869,7 +23897,7 @@
         <v>141284.7807174862</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24902,7 +23930,7 @@
         <v>177672.0806174862</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24968,7 +23996,7 @@
         <v>74545.39061748615</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -25034,7 +24062,7 @@
         <v>179173.9256174862</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -25529,7 +24557,7 @@
         <v>59627.06361748614</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25562,7 +24590,7 @@
         <v>115695.9436174861</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25727,7 +24755,7 @@
         <v>152070.3218174861</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25760,7 +24788,7 @@
         <v>88992.83181748615</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25793,7 +24821,7 @@
         <v>154573.3968174862</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25826,7 +24854,7 @@
         <v>102509.4368174862</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25859,7 +24887,7 @@
         <v>152070.3218174862</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25892,7 +24920,7 @@
         <v>110018.6618174862</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -26057,7 +25085,7 @@
         <v>224659.4968174862</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26090,7 +25118,7 @@
         <v>262706.2368174862</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26123,7 +25151,7 @@
         <v>192620.1368174862</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26156,7 +25184,7 @@
         <v>192620.1368174862</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26189,7 +25217,7 @@
         <v>192620.1368174862</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26222,7 +25250,7 @@
         <v>272502.2708174862</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26255,7 +25283,7 @@
         <v>233454.3008174862</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26321,7 +25349,7 @@
         <v>218936.4658174862</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -26354,7 +25382,7 @@
         <v>177886.0358174862</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -26585,7 +25613,7 @@
         <v>-3637.209182513834</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -26618,7 +25646,7 @@
         <v>32407.07081748616</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26651,7 +25679,7 @@
         <v>-77871.26708251383</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26684,7 +25712,7 @@
         <v>-8213.692082513837</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26750,7 +25778,7 @@
         <v>137341.4230174862</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26849,7 +25877,7 @@
         <v>-118790.1465825138</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26882,7 +25910,7 @@
         <v>-81244.02158251384</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26915,7 +25943,7 @@
         <v>-128802.4465825138</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26948,7 +25976,7 @@
         <v>-70230.49158251385</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26981,7 +26009,7 @@
         <v>-5559.043582513848</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -27014,7 +26042,7 @@
         <v>-44106.39858251385</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -27047,7 +26075,7 @@
         <v>-121201.1085825139</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -27080,7 +26108,7 @@
         <v>-172764.4535825138</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -27113,7 +26141,7 @@
         <v>-99174.04858251385</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -27146,7 +26174,7 @@
         <v>-161750.9235825138</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -27179,7 +26207,7 @@
         <v>-161750.9235825138</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -27212,7 +26240,7 @@
         <v>-264845.7135825139</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -27245,7 +26273,7 @@
         <v>-205485.3737983412</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -27278,7 +26306,7 @@
         <v>-205485.3737983412</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -27311,7 +26339,7 @@
         <v>-147414.0337983412</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -27344,7 +26372,7 @@
         <v>-147414.0337983412</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -27476,7 +26504,7 @@
         <v>-106864.2187983412</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -27509,7 +26537,7 @@
         <v>-40282.4237983412</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27542,7 +26570,7 @@
         <v>-71701.0207983412</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27674,7 +26702,7 @@
         <v>-35656.74079834119</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27740,7 +26768,7 @@
         <v>-59686.26079834119</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27773,7 +26801,7 @@
         <v>-138282.8157983412</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27806,7 +26834,7 @@
         <v>-58184.41579834119</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27839,7 +26867,7 @@
         <v>-97733.00079834118</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27872,7 +26900,7 @@
         <v>-29148.74579834117</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27905,7 +26933,7 @@
         <v>-29148.74579834117</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27938,7 +26966,7 @@
         <v>-74204.09579834118</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27971,7 +26999,7 @@
         <v>-74204.09579834118</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -28004,7 +27032,7 @@
         <v>-21639.52079834118</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -28037,7 +27065,7 @@
         <v>-21639.52079834118</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -28070,7 +27098,7 @@
         <v>-123764.9807983412</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -28169,7 +27197,7 @@
         <v>-214376.2957983412</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -28202,7 +27230,7 @@
         <v>-139784.6607983412</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -28235,7 +27263,7 @@
         <v>-93227.4657983412</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -28268,7 +27296,7 @@
         <v>-93227.4657983412</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -28301,7 +27329,7 @@
         <v>-169320.9457983412</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -28334,7 +27362,7 @@
         <v>-200859.6907983412</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -28367,7 +27395,7 @@
         <v>-200859.6907983412</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -28400,7 +27428,7 @@
         <v>-133777.2807983412</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -28532,7 +27560,7 @@
         <v>-182837.5507983412</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -28565,7 +27593,7 @@
         <v>-248918.7307983412</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28598,7 +27626,7 @@
         <v>-249487.4297983412</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28631,7 +27659,7 @@
         <v>-195421.0097983411</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28664,7 +27692,7 @@
         <v>-240976.9747983411</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28697,7 +27725,7 @@
         <v>-184908.0947983411</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -28730,7 +27758,7 @@
         <v>-235470.2097983411</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28763,7 +27791,7 @@
         <v>-157374.2697983411</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28796,7 +27824,7 @@
         <v>-210940.0747983411</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28829,7 +27857,7 @@
         <v>-178400.0997983411</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28862,7 +27890,7 @@
         <v>-51744.50479834111</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -28895,7 +27923,7 @@
         <v>-117325.0697983411</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28928,7 +27956,7 @@
         <v>-170464.6508983411</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28961,7 +27989,7 @@
         <v>-220025.5358983411</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -28994,7 +28022,7 @@
         <v>-220025.5358983411</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -29027,7 +28055,7 @@
         <v>-220025.5358983411</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -29060,7 +28088,7 @@
         <v>-289611.0208983411</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -29093,7 +28121,7 @@
         <v>-371211.2658983411</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -29126,7 +28154,7 @@
         <v>-371211.2658983411</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -29159,7 +28187,7 @@
         <v>-333164.5258983411</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -29192,7 +28220,7 @@
         <v>-263078.4258983411</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -29225,7 +28253,7 @@
         <v>-404251.8558983411</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -29258,7 +28286,7 @@
         <v>-290572.5531983411</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -29291,7 +28319,7 @@
         <v>-290572.5531983411</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -29324,7 +28352,7 @@
         <v>-229414.9519983411</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -29357,7 +28385,7 @@
         <v>-87045.8967825138</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -29390,7 +28418,7 @@
         <v>-45995.46678251379</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -29423,7 +28451,7 @@
         <v>-45708.52268251379</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -29456,7 +28484,7 @@
         <v>-45708.52268251379</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -29489,7 +28517,7 @@
         <v>1502.533417486207</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -29522,7 +28550,7 @@
         <v>368272.4953174862</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -29555,7 +28583,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -29588,7 +28616,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -29621,7 +28649,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -29654,7 +28682,7 @@
         <v>730884.2525174862</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -29687,7 +28715,7 @@
         <v>735442.6572174862</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -29720,7 +28748,7 @@
         <v>735442.6572174862</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29753,7 +28781,7 @@
         <v>678372.5472174862</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -29786,7 +28814,7 @@
         <v>642328.2672174862</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -29819,7 +28847,7 @@
         <v>717921.1322174862</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -29852,7 +28880,7 @@
         <v>788006.0022174862</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29885,7 +28913,7 @@
         <v>788006.0022174862</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29918,7 +28946,7 @@
         <v>796441.0877174862</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29951,7 +28979,7 @@
         <v>796441.0877174862</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29984,7 +29012,7 @@
         <v>784645.8172174862</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -30017,7 +29045,7 @@
         <v>783852.8432174862</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -30050,7 +29078,7 @@
         <v>783852.8432174862</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -30083,7 +29111,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -30116,7 +29144,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -30149,7 +29177,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -30182,7 +29210,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -30215,7 +29243,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -30248,7 +29276,7 @@
         <v>622062.8275174862</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -30281,7 +29309,7 @@
         <v>730073.6322174862</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -30314,7 +29342,7 @@
         <v>249580.3195174861</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -30347,7 +29375,7 @@
         <v>296638.1295174861</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -30380,7 +29408,7 @@
         <v>259092.0045174861</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -30413,7 +29441,7 @@
         <v>306650.4295174861</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -30446,7 +29474,7 @@
         <v>248078.4745174861</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -30479,7 +29507,7 @@
         <v>312157.1945174861</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -30512,7 +29540,7 @@
         <v>350704.5495174861</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -30545,7 +29573,7 @@
         <v>350904.5495174861</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -30578,7 +29606,7 @@
         <v>273809.8395174861</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30611,7 +29639,7 @@
         <v>325373.1845174861</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -30908,7 +29936,7 @@
         <v>-387554.6790825139</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -30941,7 +29969,7 @@
         <v>-418592.8090825139</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -30974,7 +30002,7 @@
         <v>-363525.1590825139</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -31007,7 +30035,7 @@
         <v>-370862.3324825139</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -31040,7 +30068,7 @@
         <v>-303279.3074825138</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -31073,7 +30101,7 @@
         <v>-354342.0374825138</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -31106,7 +30134,7 @@
         <v>-314292.8374825138</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -31139,7 +30167,7 @@
         <v>-247711.0424825138</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -31172,7 +30200,7 @@
         <v>-278248.5574825138</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -31205,7 +30233,7 @@
         <v>-312790.9924825138</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -31238,7 +30266,7 @@
         <v>-275745.4824825138</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -31271,7 +30299,7 @@
         <v>-276073.8854825138</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -31304,7 +30332,7 @@
         <v>-233020.9954825138</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -31337,7 +30365,7 @@
         <v>-305109.5554825138</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -31370,7 +30398,7 @@
         <v>-257050.5154825138</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -31403,7 +30431,7 @@
         <v>-335647.0704825138</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -31436,7 +30464,7 @@
         <v>-255548.6704825138</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -31469,7 +30497,7 @@
         <v>-295097.2554825137</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -31502,7 +30530,7 @@
         <v>-226513.0004825137</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -31535,7 +30563,7 @@
         <v>-168942.2754825137</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -31568,7 +30596,7 @@
         <v>-213997.6254825137</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -31601,7 +30629,7 @@
         <v>-213997.6254825137</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -31634,7 +30662,7 @@
         <v>-161433.0504825137</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -31667,7 +30695,7 @@
         <v>-223509.3104825137</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -31799,7 +30827,7 @@
         <v>-241030.8354825137</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -31832,7 +30860,7 @@
         <v>-315121.8554825137</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -31865,7 +30893,7 @@
         <v>-193356.2674825137</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -32030,7 +31058,7 @@
         <v>-842671.4742825136</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -32063,7 +31091,7 @@
         <v>-1142671.474282514</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -32096,7 +31124,7 @@
         <v>-819362.1540825136</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -32129,7 +31157,7 @@
         <v>-874930.4190825137</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -32162,7 +31190,7 @@
         <v>-934503.6040825136</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -32195,7 +31223,7 @@
         <v>-881438.4140825137</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -34604,7 +33632,7 @@
         <v>-239165.0249825139</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -34637,7 +33665,7 @@
         <v>-170580.7699825139</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34670,7 +33698,7 @@
         <v>-273206.8449825139</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -34703,7 +33731,7 @@
         <v>-287917.3350825139</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34736,7 +33764,7 @@
         <v>-246366.2900825139</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -34769,7 +33797,7 @@
         <v>-193449.2820825139</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -34802,7 +33830,7 @@
         <v>-255525.5420825139</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34835,7 +33863,7 @@
         <v>-289567.3620825139</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -34868,7 +33896,7 @@
         <v>-221483.7220825139</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -34901,7 +33929,7 @@
         <v>-256526.7720825138</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -34934,7 +33962,7 @@
         <v>-300580.8920825138</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -34967,7 +33995,7 @@
         <v>1257444.592327315</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -35000,7 +34028,7 @@
         <v>1122779.157327315</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -35198,7 +34226,7 @@
         <v>1092241.642327315</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -35209,6 +34237,6 @@
       <c r="M955" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest CON.xlsx
+++ b/BackTest/2020-01-12 BackTest CON.xlsx
@@ -1969,7 +1969,7 @@
         <v>-4318413.977496643</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-4375984.702496642</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-4330929.352496643</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-4289378.307496643</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-4236813.732496643</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-4298889.992496642</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-4332931.812496643</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-4264848.172496643</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-4255837.102496643</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-4270162.701496643</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-4344754.336496643</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-4391311.531496643</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-4330236.501496643</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-4254143.021496642</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-4285681.766496642</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-4143507.106496642</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-4208086.441496642</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3190,14 +3190,10 @@
         <v>-3862883.255389267</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3.354</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3.354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
@@ -3230,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3.354</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3266,19 +3256,11 @@
         <v>-3879904.165389267</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3.369</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3.354</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3307,14 +3289,10 @@
         <v>-3841857.425389267</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3.357</v>
-      </c>
-      <c r="J88" t="n">
-        <v>3.357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
@@ -3344,19 +3322,11 @@
         <v>-3911943.525389267</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="J89" t="n">
-        <v>3.357</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3388,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3.357</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3424,14 +3388,10 @@
         <v>-3929965.665389267</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3.362</v>
-      </c>
-      <c r="J91" t="n">
-        <v>3.362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3464,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3.362</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3503,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3.362</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3545,13 +3493,9 @@
         <v>3.367</v>
       </c>
       <c r="J94" t="n">
-        <v>3.362</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.367</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3530,11 @@
         <v>3.36</v>
       </c>
       <c r="J95" t="n">
-        <v>3.362</v>
+        <v>3.367</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -3627,11 +3571,11 @@
         <v>3.351</v>
       </c>
       <c r="J96" t="n">
-        <v>3.362</v>
+        <v>3.367</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3668,13 +3612,9 @@
         <v>3.355</v>
       </c>
       <c r="J97" t="n">
-        <v>3.362</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.355</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3703,17 +3643,15 @@
         <v>-3826475.848789267</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>3.362</v>
+        <v>3.355</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -3748,11 +3686,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>3.362</v>
+        <v>3.355</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3783,17 +3721,15 @@
         <v>-3833484.458789267</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3.368</v>
+      </c>
       <c r="J100" t="n">
-        <v>3.362</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.368</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3822,15 +3758,17 @@
         <v>-3870029.353789267</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3.388</v>
+      </c>
       <c r="J101" t="n">
-        <v>3.362</v>
+        <v>3.368</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3867,11 +3805,11 @@
         <v>3.353</v>
       </c>
       <c r="J102" t="n">
-        <v>3.362</v>
+        <v>3.368</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -3902,17 +3840,15 @@
         <v>-3755889.133789267</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3.356</v>
+      </c>
       <c r="J103" t="n">
-        <v>3.362</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.356</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3945,11 +3881,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>3.362</v>
+        <v>3.356</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -3984,11 +3920,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>3.362</v>
+        <v>3.356</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -4022,14 +3958,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3.362</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4058,17 +3988,15 @@
         <v>-3728355.308789267</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.372</v>
+      </c>
       <c r="J107" t="n">
-        <v>3.362</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.372</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4097,15 +4025,17 @@
         <v>-3806647.489789267</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3.369</v>
+      </c>
       <c r="J108" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -4136,11 +4066,13 @@
         <v>-3762092.754789267</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.352</v>
+      </c>
       <c r="J109" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4175,11 +4107,13 @@
         <v>-3816659.789789267</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3.387</v>
+      </c>
       <c r="J110" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4214,11 +4148,13 @@
         <v>-3876733.589789267</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.379</v>
+      </c>
       <c r="J111" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4253,11 +4189,13 @@
         <v>-3827673.319789267</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3.373</v>
+      </c>
       <c r="J112" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4292,11 +4230,13 @@
         <v>-3827673.319789267</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.379</v>
+      </c>
       <c r="J113" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4331,11 +4271,13 @@
         <v>-3912777.869789266</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.379</v>
+      </c>
       <c r="J114" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4370,11 +4312,13 @@
         <v>-3853404.930789267</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3.369</v>
+      </c>
       <c r="J115" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4409,11 +4353,13 @@
         <v>-3917483.650789267</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.383</v>
+      </c>
       <c r="J116" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4448,11 +4394,13 @@
         <v>-3801841.585789267</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3.362</v>
+      </c>
       <c r="J117" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4487,11 +4435,13 @@
         <v>-3853404.930789267</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3.369</v>
+      </c>
       <c r="J118" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4526,11 +4476,13 @@
         <v>-3779814.525789267</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3.357</v>
+      </c>
       <c r="J119" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4565,11 +4517,13 @@
         <v>-3677476.834889268</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.381</v>
+      </c>
       <c r="J120" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4604,11 +4558,13 @@
         <v>-3612396.884889267</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3.389</v>
+      </c>
       <c r="J121" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4643,11 +4599,13 @@
         <v>-3685486.674889267</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3.392</v>
+      </c>
       <c r="J122" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4682,11 +4640,13 @@
         <v>-3744559.244889267</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3.382</v>
+      </c>
       <c r="J123" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4721,11 +4681,13 @@
         <v>-3698502.664889267</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3.375</v>
+      </c>
       <c r="J124" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4760,11 +4722,13 @@
         <v>-3756574.004889267</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3.376</v>
+      </c>
       <c r="J125" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4799,11 +4763,13 @@
         <v>-3724534.644889267</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3.359</v>
+      </c>
       <c r="J126" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4838,11 +4804,13 @@
         <v>-3638428.864889267</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3.36</v>
+      </c>
       <c r="J127" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4877,11 +4845,13 @@
         <v>-3570845.839889267</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3.391</v>
+      </c>
       <c r="J128" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4920,7 +4890,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4955,11 +4925,13 @@
         <v>-3661957.769889268</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3.391</v>
+      </c>
       <c r="J130" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4994,11 +4966,13 @@
         <v>-3595375.974889268</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3.368</v>
+      </c>
       <c r="J131" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5033,11 +5007,13 @@
         <v>-3564838.459889268</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3.375</v>
+      </c>
       <c r="J132" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5072,11 +5048,13 @@
         <v>-3598379.664889268</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J133" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5111,11 +5089,13 @@
         <v>-3522459.601889268</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3.363</v>
+      </c>
       <c r="J134" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5150,11 +5130,13 @@
         <v>-3559505.111889267</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>3.395</v>
+      </c>
       <c r="J135" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5189,11 +5171,13 @@
         <v>-3602558.001889267</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>3.389</v>
+      </c>
       <c r="J136" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5228,11 +5212,13 @@
         <v>-3601909.204889268</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3.364</v>
+      </c>
       <c r="J137" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5267,11 +5253,13 @@
         <v>-3722056.804889268</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3.395</v>
+      </c>
       <c r="J138" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5306,11 +5294,13 @@
         <v>-3800653.359889268</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3.392</v>
+      </c>
       <c r="J139" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5345,11 +5335,13 @@
         <v>-3880751.759889268</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3.383</v>
+      </c>
       <c r="J140" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5384,11 +5376,13 @@
         <v>-3841203.174889268</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J141" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5423,11 +5417,13 @@
         <v>-3772618.919889268</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3.382</v>
+      </c>
       <c r="J142" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5462,11 +5458,13 @@
         <v>-3830189.644889268</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3.392</v>
+      </c>
       <c r="J143" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5501,11 +5499,13 @@
         <v>-3875244.994889268</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J144" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5540,11 +5540,13 @@
         <v>-3781129.374889268</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3.372</v>
+      </c>
       <c r="J145" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5579,11 +5581,13 @@
         <v>-1662339.229589268</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3.384</v>
+      </c>
       <c r="J146" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5622,7 +5626,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5661,7 +5665,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5700,7 +5704,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5739,7 +5743,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5778,7 +5782,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5817,7 +5821,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5856,7 +5860,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5895,7 +5899,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5934,7 +5938,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5973,7 +5977,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6012,7 +6016,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6051,7 +6055,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6090,7 +6094,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6129,7 +6133,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6168,7 +6172,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6207,7 +6211,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6246,7 +6250,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6285,7 +6289,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6324,7 +6328,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6363,7 +6367,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6402,7 +6406,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6441,7 +6445,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6480,7 +6484,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6519,7 +6523,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6558,7 +6562,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6597,7 +6601,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6636,7 +6640,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6675,7 +6679,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6714,7 +6718,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6753,7 +6757,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6792,7 +6796,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6831,7 +6835,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6870,7 +6874,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6909,7 +6913,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6948,7 +6952,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6987,7 +6991,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7026,7 +7030,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7065,7 +7069,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7104,7 +7108,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7143,7 +7147,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7182,7 +7186,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7221,7 +7225,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7260,7 +7264,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7299,7 +7303,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7338,7 +7342,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7377,7 +7381,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7416,7 +7420,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7455,7 +7459,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7494,7 +7498,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7533,7 +7537,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7572,7 +7576,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7611,7 +7615,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7650,7 +7654,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7689,7 +7693,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7728,7 +7732,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7767,7 +7771,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7806,7 +7810,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7845,7 +7849,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7884,7 +7888,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7923,7 +7927,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7962,7 +7966,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8001,7 +8005,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8040,7 +8044,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8079,7 +8083,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8118,7 +8122,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8157,7 +8161,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8196,7 +8200,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8235,7 +8239,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8274,7 +8278,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8313,7 +8317,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8352,7 +8356,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8391,7 +8395,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8430,7 +8434,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8469,7 +8473,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8508,7 +8512,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8547,7 +8551,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8586,7 +8590,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8625,7 +8629,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8664,7 +8668,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8703,7 +8707,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8742,7 +8746,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8781,7 +8785,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8820,7 +8824,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8859,7 +8863,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8898,7 +8902,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8937,7 +8941,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8976,7 +8980,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9015,7 +9019,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9054,7 +9058,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9093,7 +9097,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9132,7 +9136,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9171,7 +9175,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9210,7 +9214,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9249,7 +9253,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9288,7 +9292,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9327,7 +9331,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9366,7 +9370,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9405,7 +9409,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9444,7 +9448,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9483,7 +9487,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9522,7 +9526,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9561,7 +9565,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9600,7 +9604,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9639,7 +9643,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9678,7 +9682,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9717,7 +9721,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9756,7 +9760,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9795,7 +9799,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9834,7 +9838,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9873,7 +9877,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9912,7 +9916,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9951,7 +9955,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9990,7 +9994,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10029,7 +10033,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10068,7 +10072,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10107,7 +10111,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10146,7 +10150,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10185,7 +10189,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10224,7 +10228,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10263,7 +10267,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10302,7 +10306,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10341,7 +10345,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10380,7 +10384,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10419,7 +10423,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10458,7 +10462,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10497,7 +10501,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10536,7 +10540,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10575,7 +10579,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10614,7 +10618,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10653,7 +10657,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10692,7 +10696,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10731,7 +10735,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10770,7 +10774,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10809,7 +10813,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10848,7 +10852,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10887,7 +10891,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10926,7 +10930,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10965,7 +10969,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11004,7 +11008,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11043,7 +11047,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11082,7 +11086,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11121,7 +11125,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11160,7 +11164,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11199,7 +11203,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11238,7 +11242,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11277,7 +11281,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11316,7 +11320,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11355,7 +11359,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11394,7 +11398,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11433,7 +11437,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11472,7 +11476,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11511,7 +11515,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11550,7 +11554,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11589,7 +11593,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11628,7 +11632,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11667,7 +11671,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11706,7 +11710,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11745,7 +11749,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11784,7 +11788,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11823,7 +11827,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11862,7 +11866,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11901,7 +11905,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11940,7 +11944,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11979,7 +11983,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12018,7 +12022,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12057,7 +12061,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12096,7 +12100,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12135,7 +12139,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12174,7 +12178,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12213,7 +12217,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12252,7 +12256,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12291,7 +12295,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12330,7 +12334,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12369,7 +12373,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12408,7 +12412,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12447,7 +12451,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12486,7 +12490,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12525,7 +12529,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12564,7 +12568,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12603,7 +12607,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12642,7 +12646,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12681,7 +12685,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12720,7 +12724,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12759,7 +12763,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12798,7 +12802,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12837,7 +12841,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12876,7 +12880,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12915,7 +12919,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12954,7 +12958,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12993,7 +12997,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13032,7 +13036,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13071,7 +13075,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13110,7 +13114,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13149,7 +13153,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13188,7 +13192,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13227,7 +13231,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13266,7 +13270,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13305,7 +13309,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13344,7 +13348,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13383,7 +13387,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13422,7 +13426,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13461,7 +13465,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -13500,7 +13504,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13539,7 +13543,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13578,7 +13582,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13617,7 +13621,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13656,7 +13660,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13695,7 +13699,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13734,7 +13738,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13773,7 +13777,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13812,7 +13816,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13851,7 +13855,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13890,7 +13894,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13929,7 +13933,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13968,7 +13972,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -14007,7 +14011,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -14046,7 +14050,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14085,7 +14089,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14124,7 +14128,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14163,7 +14167,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14202,7 +14206,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14241,7 +14245,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14280,7 +14284,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -14319,7 +14323,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -14358,7 +14362,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -14397,7 +14401,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -14436,7 +14440,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -14475,7 +14479,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -14514,7 +14518,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -14553,7 +14557,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14592,7 +14596,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14631,7 +14635,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -14670,7 +14674,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -14709,7 +14713,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -14748,7 +14752,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14787,7 +14791,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14826,7 +14830,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14865,7 +14869,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14904,7 +14908,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14943,7 +14947,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14982,7 +14986,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -15021,7 +15025,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -15060,7 +15064,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -15099,7 +15103,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -15138,7 +15142,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -15177,7 +15181,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -15216,7 +15220,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -15255,7 +15259,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -15294,7 +15298,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -15333,7 +15337,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -15372,7 +15376,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -15411,7 +15415,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -15450,7 +15454,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -15489,7 +15493,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -15528,7 +15532,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -15567,7 +15571,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -15606,7 +15610,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -15645,7 +15649,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -15684,7 +15688,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -15723,7 +15727,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -15762,7 +15766,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -15801,7 +15805,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15840,7 +15844,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15879,7 +15883,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15918,7 +15922,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15957,7 +15961,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15996,7 +16000,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -16035,7 +16039,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -16074,7 +16078,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -16113,7 +16117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -16152,7 +16156,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -16191,7 +16195,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -16230,7 +16234,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -16269,7 +16273,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -16308,7 +16312,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -16347,7 +16351,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -16386,7 +16390,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -16425,7 +16429,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -16464,7 +16468,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -16503,7 +16507,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -16542,7 +16546,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -16581,7 +16585,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -16620,7 +16624,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -16659,7 +16663,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -16698,7 +16702,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -16737,7 +16741,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16776,7 +16780,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16815,7 +16819,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16854,7 +16858,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16893,7 +16897,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16932,7 +16936,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16971,7 +16975,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -17010,7 +17014,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -17049,7 +17053,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -17088,7 +17092,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -17127,7 +17131,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -17166,7 +17170,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -17205,7 +17209,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -17244,7 +17248,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -17283,7 +17287,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -17322,7 +17326,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -17361,7 +17365,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -17400,7 +17404,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -17439,7 +17443,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -17478,7 +17482,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -17517,7 +17521,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -17556,7 +17560,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -17595,7 +17599,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -17634,7 +17638,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -17673,7 +17677,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -17712,7 +17716,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -17751,7 +17755,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17790,7 +17794,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17829,7 +17833,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17868,7 +17872,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17907,7 +17911,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17946,7 +17950,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17985,7 +17989,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -18024,7 +18028,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -18063,7 +18067,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -18102,7 +18106,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -18141,7 +18145,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -18180,7 +18184,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -18215,19 +18219,19 @@
         <v>-936411.226323682</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>3.362</v>
+        <v>3.372</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L470" t="n">
-        <v>1.015226055919096</v>
+        <v>1</v>
       </c>
       <c r="M470" t="inlineStr"/>
     </row>
@@ -18257,8 +18261,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18290,8 +18300,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18323,8 +18339,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18356,8 +18378,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18389,8 +18417,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18422,8 +18456,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18452,13 +18492,19 @@
         <v>582902.5125273152</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L477" t="n">
-        <v>1</v>
+        <v>1.041856465005931</v>
       </c>
       <c r="M477" t="inlineStr"/>
     </row>
@@ -18485,7 +18531,7 @@
         <v>519324.4075273152</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18518,7 +18564,7 @@
         <v>453393.8505273152</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18551,7 +18597,7 @@
         <v>387813.2855273152</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18749,7 +18795,7 @@
         <v>543203.9355273151</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18782,7 +18828,7 @@
         <v>508561.3455273152</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18815,7 +18861,7 @@
         <v>458499.8455273152</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18848,7 +18894,7 @@
         <v>496546.5855273152</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18914,7 +18960,7 @@
         <v>395513.2627273151</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18947,7 +18993,7 @@
         <v>333937.6177273151</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19244,7 +19290,7 @@
         <v>192193.4117273152</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19277,7 +19323,7 @@
         <v>235746.9167273152</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19310,7 +19356,7 @@
         <v>165160.2017273152</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19343,7 +19389,7 @@
         <v>258274.5917273152</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19376,7 +19422,7 @@
         <v>333867.4567273151</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -22610,7 +22656,7 @@
         <v>454424.9480174861</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22775,7 +22821,7 @@
         <v>411261.7811174861</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22808,7 +22854,7 @@
         <v>373715.6561174861</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22907,7 +22953,7 @@
         <v>448807.9061174861</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22940,7 +22986,7 @@
         <v>410260.5511174861</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22973,7 +23019,7 @@
         <v>332599.8097174861</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23138,7 +23184,7 @@
         <v>306067.2147174861</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23171,7 +23217,7 @@
         <v>352123.7947174861</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23237,7 +23283,7 @@
         <v>262013.0947174862</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23270,7 +23316,7 @@
         <v>348118.8747174862</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23336,7 +23382,7 @@
         <v>228808.3027174862</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23435,7 +23481,7 @@
         <v>171738.1927174862</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23666,7 +23712,7 @@
         <v>67109.65771748614</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24755,7 +24801,7 @@
         <v>152070.3218174861</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25613,7 +25659,7 @@
         <v>-3637.209182513834</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25646,7 +25692,7 @@
         <v>32407.07081748616</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25679,7 +25725,7 @@
         <v>-77871.26708251383</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -28550,7 +28596,7 @@
         <v>368272.4953174862</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28583,7 +28629,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28616,7 +28662,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28649,7 +28695,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28682,7 +28728,7 @@
         <v>730884.2525174862</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28715,7 +28761,7 @@
         <v>735442.6572174862</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28748,7 +28794,7 @@
         <v>735442.6572174862</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28781,7 +28827,7 @@
         <v>678372.5472174862</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28814,7 +28860,7 @@
         <v>642328.2672174862</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28847,7 +28893,7 @@
         <v>717921.1322174862</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28880,7 +28926,7 @@
         <v>788006.0022174862</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28913,7 +28959,7 @@
         <v>788006.0022174862</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28946,7 +28992,7 @@
         <v>796441.0877174862</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28979,7 +29025,7 @@
         <v>796441.0877174862</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29012,7 +29058,7 @@
         <v>784645.8172174862</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29045,7 +29091,7 @@
         <v>783852.8432174862</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29078,7 +29124,7 @@
         <v>783852.8432174862</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -29111,7 +29157,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29144,7 +29190,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29177,7 +29223,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29210,7 +29256,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29243,7 +29289,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29276,7 +29322,7 @@
         <v>622062.8275174862</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29309,7 +29355,7 @@
         <v>730073.6322174862</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29342,7 +29388,7 @@
         <v>249580.3195174861</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29375,7 +29421,7 @@
         <v>296638.1295174861</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29408,7 +29454,7 @@
         <v>259092.0045174861</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29441,7 +29487,7 @@
         <v>306650.4295174861</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29474,7 +29520,7 @@
         <v>248078.4745174861</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29507,7 +29553,7 @@
         <v>312157.1945174861</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29540,7 +29586,7 @@
         <v>350704.5495174861</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29573,7 +29619,7 @@
         <v>350904.5495174861</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29606,7 +29652,7 @@
         <v>273809.8395174861</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29639,7 +29685,7 @@
         <v>325373.1845174861</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29672,7 +29718,7 @@
         <v>251782.7795174861</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29705,7 +29751,7 @@
         <v>314359.6545174861</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29738,7 +29784,7 @@
         <v>249279.7045174861</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29771,7 +29817,7 @@
         <v>176189.9145174861</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29804,7 +29850,7 @@
         <v>235262.4845174861</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29837,7 +29883,7 @@
         <v>235809.9825174861</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29870,7 +29916,7 @@
         <v>131682.0625174861</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29903,7 +29949,7 @@
         <v>-355515.3190825139</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29936,7 +29982,7 @@
         <v>-387554.6790825139</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -33632,7 +33678,7 @@
         <v>-239165.0249825139</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33698,7 +33744,7 @@
         <v>-273206.8449825139</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33731,7 +33777,7 @@
         <v>-287917.3350825139</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34028,7 +34074,7 @@
         <v>1122779.157327315</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -34061,7 +34107,7 @@
         <v>1197370.792327315</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -34094,7 +34140,7 @@
         <v>1150813.597327315</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -34127,7 +34173,7 @@
         <v>1211888.627327315</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -34160,7 +34206,7 @@
         <v>1135795.147327315</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -34193,7 +34239,7 @@
         <v>1167333.892327315</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -34226,7 +34272,7 @@
         <v>1092241.642327315</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
